--- a/timings.xlsx
+++ b/timings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13635"/>
+    <workbookView windowWidth="28695" windowHeight="13635" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="8-9" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130">
   <si>
     <t>MIKAN</t>
   </si>
@@ -134,6 +134,12 @@
     <t>BUZDA</t>
   </si>
   <si>
+    <t>22:00:00</t>
+  </si>
+  <si>
+    <t>21:50:00</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 23:20:00</t>
   </si>
   <si>
@@ -143,7 +149,13 @@
     <t xml:space="preserve"> 23:50:00</t>
   </si>
   <si>
+    <t>00:20:00</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 00:52:00</t>
+  </si>
+  <si>
+    <t>21:40:00</t>
   </si>
   <si>
     <t xml:space="preserve"> 23:40:00</t>
@@ -406,10 +418,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -427,8 +439,93 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -443,21 +540,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -477,99 +582,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -580,7 +592,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,49 +622,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,7 +658,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,6 +676,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -676,19 +730,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,67 +766,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -771,60 +783,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -871,56 +829,110 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3"/>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6"/>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="7"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="8"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="5"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5"/>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="5"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
@@ -1260,8 +1272,8 @@
   <sheetPr/>
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
@@ -1492,8 +1504,8 @@
   <sheetPr/>
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
@@ -1519,8 +1531,8 @@
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="6">
-        <v>0.916666666666667</v>
+      <c r="B2" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
@@ -1530,30 +1542,30 @@
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="6">
-        <v>0.909722222222222</v>
+      <c r="B3" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="6">
-        <v>0.909722222222222</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="6">
-        <v>0.909722222222222</v>
+      <c r="B5" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>11</v>
@@ -1563,8 +1575,8 @@
       <c r="A6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="6">
-        <v>0.916666666666667</v>
+      <c r="B6" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>11</v>
@@ -1574,19 +1586,19 @@
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="6">
-        <v>0.909722222222222</v>
+      <c r="B7" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="6">
-        <v>0.0138888888888889</v>
+      <c r="B8" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>11</v>
@@ -1596,19 +1608,19 @@
       <c r="A9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="6">
-        <v>0.916666666666667</v>
+      <c r="B9" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="6">
-        <v>0.902777777777778</v>
+      <c r="B10" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>16</v>
@@ -1618,8 +1630,8 @@
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="6">
-        <v>0.909722222222222</v>
+      <c r="B11" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>28</v>
@@ -1629,41 +1641,41 @@
       <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="6">
-        <v>0.916666666666667</v>
+      <c r="B12" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="6">
-        <v>0.909722222222222</v>
+      <c r="B13" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="6">
-        <v>0.0138888888888889</v>
+      <c r="B14" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="6">
-        <v>0.916666666666667</v>
+      <c r="B15" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>11</v>
@@ -1696,10 +1708,10 @@
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1725,10 +1737,10 @@
         <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1751,13 +1763,13 @@
     </row>
     <row r="3" s="3" customFormat="1" spans="1:21">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1780,13 +1792,13 @@
     </row>
     <row r="4" s="3" customFormat="1" spans="1:21">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1812,10 +1824,10 @@
         <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1841,10 +1853,10 @@
         <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1867,13 +1879,13 @@
     </row>
     <row r="7" s="3" customFormat="1" spans="1:21">
       <c r="A7" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1896,13 +1908,13 @@
     </row>
     <row r="8" s="3" customFormat="1" spans="1:21">
       <c r="A8" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1925,13 +1937,13 @@
     </row>
     <row r="9" s="3" customFormat="1" spans="1:21">
       <c r="A9" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1954,13 +1966,13 @@
     </row>
     <row r="10" s="3" customFormat="1" spans="1:21">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1983,13 +1995,13 @@
     </row>
     <row r="11" s="3" customFormat="1" spans="1:21">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -2015,10 +2027,10 @@
         <v>17</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -2041,13 +2053,13 @@
     </row>
     <row r="13" s="3" customFormat="1" spans="1:21">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -2073,10 +2085,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -2099,13 +2111,13 @@
     </row>
     <row r="15" s="3" customFormat="1" spans="1:21">
       <c r="A15" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B15" s="6">
         <v>0.826388888888889</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -2128,13 +2140,13 @@
     </row>
     <row r="16" s="3" customFormat="1" spans="1:21">
       <c r="A16" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B16" s="6">
         <v>0.826388888888889</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -2163,7 +2175,7 @@
         <v>0.826388888888889</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -2192,7 +2204,7 @@
         <v>0.881944444444444</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -2221,7 +2233,7 @@
         <v>0.833333333333333</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -2250,7 +2262,7 @@
         <v>0.0555555555555556</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -2273,13 +2285,13 @@
     </row>
     <row r="21" s="3" customFormat="1" spans="1:21">
       <c r="A21" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B21" s="6">
         <v>0.826388888888889</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -2308,7 +2320,7 @@
         <v>0.826388888888889</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -2337,7 +2349,7 @@
         <v>0.902777777777778</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -2366,7 +2378,7 @@
         <v>0.909722222222222</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -2395,7 +2407,7 @@
         <v>0.826388888888889</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -2418,13 +2430,13 @@
     </row>
     <row r="26" s="3" customFormat="1" spans="1:21">
       <c r="A26" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B26" s="6">
         <v>0.0486111111111111</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -2447,13 +2459,13 @@
     </row>
     <row r="27" s="3" customFormat="1" spans="1:21">
       <c r="A27" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B27" s="6">
         <v>0.826388888888889</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -2482,7 +2494,7 @@
         <v>0.826388888888889</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -2511,7 +2523,7 @@
         <v>0.861111111111111</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -2534,13 +2546,13 @@
     </row>
     <row r="30" s="3" customFormat="1" spans="1:21">
       <c r="A30" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B30" s="6">
         <v>0.826388888888889</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -2569,7 +2581,7 @@
         <v>0.826388888888889</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -2598,7 +2610,7 @@
         <v>0.826388888888889</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -2643,18 +2655,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B1" s="6">
         <v>0.9375</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B2" s="6">
         <v>0.0104166666666667</v>
@@ -2671,7 +2683,7 @@
         <v>0.833333333333333</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2682,29 +2694,29 @@
         <v>0.909722222222222</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B5" s="6">
         <v>0.809027777777778</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B6" s="6">
         <v>0.895833333333333</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2715,7 +2727,7 @@
         <v>0.819444444444444</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2726,7 +2738,7 @@
         <v>0.902777777777778</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2753,13 +2765,13 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B11" s="6">
         <v>0.809027777777778</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2770,7 +2782,7 @@
         <v>0.826388888888889</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2781,29 +2793,29 @@
         <v>0.951388888888889</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B14" s="6">
         <v>0.822916666666667</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B15" s="6">
         <v>0.923611111111111</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2814,7 +2826,7 @@
         <v>0.888888888888889</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2825,7 +2837,7 @@
         <v>0.972222222222222</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2858,7 +2870,7 @@
         <v>0.0729166666666667</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2869,7 +2881,7 @@
         <v>0.828472222222222</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2891,7 +2903,7 @@
         <v>0.0694444444444444</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2902,7 +2914,7 @@
         <v>0.822916666666667</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2913,7 +2925,7 @@
         <v>0.822222222222222</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2924,7 +2936,7 @@
         <v>0.819444444444444</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2935,7 +2947,7 @@
         <v>0.909722222222222</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2957,7 +2969,7 @@
         <v>0.826388888888889</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2968,7 +2980,7 @@
         <v>0.9375</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2979,7 +2991,7 @@
         <v>0.8125</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2990,7 +3002,7 @@
         <v>0.909722222222222</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -3001,18 +3013,18 @@
         <v>0.930555555555556</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B34" s="6">
         <v>0.923611111111111</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -3023,7 +3035,7 @@
         <v>0.833333333333333</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -3034,7 +3046,7 @@
         <v>0.888888888888889</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -3045,7 +3057,7 @@
         <v>0.923611111111111</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -3067,7 +3079,7 @@
         <v>0.0694444444444444</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -3078,7 +3090,7 @@
         <v>0.826388888888889</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -3089,7 +3101,7 @@
         <v>0.819444444444444</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -3105,18 +3117,18 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B43" s="6">
         <v>0.819444444444444</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B44" s="6">
         <v>0.951388888888889</v>
@@ -3133,7 +3145,7 @@
         <v>0.819444444444444</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -3149,13 +3161,13 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B47" s="6">
         <v>0.819444444444444</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3186,10 +3198,10 @@
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -3215,10 +3227,10 @@
         <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -3244,10 +3256,10 @@
         <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -3270,13 +3282,13 @@
     </row>
     <row r="4" s="3" customFormat="1" spans="1:21">
       <c r="A4" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -3299,13 +3311,13 @@
     </row>
     <row r="5" s="3" customFormat="1" spans="1:21">
       <c r="A5" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -3328,13 +3340,13 @@
     </row>
     <row r="6" s="3" customFormat="1" spans="1:21">
       <c r="A6" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -3357,13 +3369,13 @@
     </row>
     <row r="7" s="3" customFormat="1" spans="1:21">
       <c r="A7" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -3386,13 +3398,13 @@
     </row>
     <row r="8" s="3" customFormat="1" spans="1:21">
       <c r="A8" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -3415,13 +3427,13 @@
     </row>
     <row r="9" s="3" customFormat="1" spans="1:21">
       <c r="A9" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -3444,13 +3456,13 @@
     </row>
     <row r="10" s="3" customFormat="1" spans="1:21">
       <c r="A10" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -3473,13 +3485,13 @@
     </row>
     <row r="11" s="3" customFormat="1" spans="1:21">
       <c r="A11" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -3502,13 +3514,13 @@
     </row>
     <row r="12" s="3" customFormat="1" spans="1:21">
       <c r="A12" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -3531,13 +3543,13 @@
     </row>
     <row r="13" s="3" customFormat="1" spans="1:21">
       <c r="A13" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -3560,13 +3572,13 @@
     </row>
     <row r="14" s="3" customFormat="1" spans="1:21">
       <c r="A14" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -3592,10 +3604,10 @@
         <v>32</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -3621,10 +3633,10 @@
         <v>33</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -3650,10 +3662,10 @@
         <v>33</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -3676,13 +3688,13 @@
     </row>
     <row r="18" s="3" customFormat="1" spans="1:21">
       <c r="A18" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -3708,10 +3720,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -3734,13 +3746,13 @@
     </row>
     <row r="20" s="3" customFormat="1" spans="1:21">
       <c r="A20" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -3763,13 +3775,13 @@
     </row>
     <row r="21" s="3" customFormat="1" spans="1:21">
       <c r="A21" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -3792,13 +3804,13 @@
     </row>
     <row r="22" s="3" customFormat="1" spans="1:21">
       <c r="A22" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -3821,13 +3833,13 @@
     </row>
     <row r="23" s="3" customFormat="1" spans="1:21">
       <c r="A23" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -3850,13 +3862,13 @@
     </row>
     <row r="24" s="3" customFormat="1" spans="1:21">
       <c r="A24" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -3879,13 +3891,13 @@
     </row>
     <row r="25" s="3" customFormat="1" spans="1:21">
       <c r="A25" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -3911,10 +3923,10 @@
         <v>21</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -3940,10 +3952,10 @@
         <v>21</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -3966,13 +3978,13 @@
     </row>
     <row r="28" s="3" customFormat="1" spans="1:21">
       <c r="A28" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B28" s="6">
         <v>0.833333333333333</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -3995,13 +4007,13 @@
     </row>
     <row r="29" s="3" customFormat="1" spans="1:21">
       <c r="A29" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B29" s="6">
         <v>0.916666666666667</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -4024,7 +4036,7 @@
     </row>
     <row r="30" s="3" customFormat="1" spans="1:21">
       <c r="A30" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B30" s="6">
         <v>0.0277777777777778</v>
@@ -4053,7 +4065,7 @@
     </row>
     <row r="31" s="3" customFormat="1" spans="1:21">
       <c r="A31" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B31" s="6">
         <v>0.0555555555555556</v>
@@ -4082,13 +4094,13 @@
     </row>
     <row r="32" s="3" customFormat="1" spans="1:21">
       <c r="A32" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B32" s="6">
         <v>0.8125</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -4111,13 +4123,13 @@
     </row>
     <row r="33" s="3" customFormat="1" spans="1:21">
       <c r="A33" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B33" s="6">
         <v>0.9375</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -4140,13 +4152,13 @@
     </row>
     <row r="34" s="3" customFormat="1" spans="1:21">
       <c r="A34" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B34" s="6">
         <v>0.8125</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -4169,13 +4181,13 @@
     </row>
     <row r="35" s="3" customFormat="1" spans="1:21">
       <c r="A35" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B35" s="6">
         <v>0.9375</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -4204,7 +4216,7 @@
         <v>0.826388888888889</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -4233,7 +4245,7 @@
         <v>0.819444444444444</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -4262,7 +4274,7 @@
         <v>0.923611111111111</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -4285,13 +4297,13 @@
     </row>
     <row r="39" s="3" customFormat="1" spans="1:21">
       <c r="A39" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B39" s="6">
         <v>0.8125</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -4314,13 +4326,13 @@
     </row>
     <row r="40" s="3" customFormat="1" spans="1:21">
       <c r="A40" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B40" s="6">
         <v>0.923611111111111</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -4343,13 +4355,13 @@
     </row>
     <row r="41" s="3" customFormat="1" spans="1:21">
       <c r="A41" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B41" s="6">
         <v>0.805555555555556</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -4372,13 +4384,13 @@
     </row>
     <row r="42" s="3" customFormat="1" spans="1:21">
       <c r="A42" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B42" s="6">
         <v>0.944444444444444</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -4401,13 +4413,13 @@
     </row>
     <row r="43" s="3" customFormat="1" spans="1:21">
       <c r="A43" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B43" s="6">
         <v>0.819444444444444</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -4430,13 +4442,13 @@
     </row>
     <row r="44" s="3" customFormat="1" spans="1:21">
       <c r="A44" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B44" s="6">
         <v>0.840277777777778</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -4459,13 +4471,13 @@
     </row>
     <row r="45" s="3" customFormat="1" spans="1:21">
       <c r="A45" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B45" s="6">
         <v>0.951388888888889</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -4491,10 +4503,10 @@
         <v>31</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -4523,7 +4535,7 @@
         <v>24</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -4600,10 +4612,10 @@
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -4626,13 +4638,13 @@
     </row>
     <row r="2" s="3" customFormat="1" spans="1:21">
       <c r="A2" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -4655,13 +4667,13 @@
     </row>
     <row r="3" s="3" customFormat="1" spans="1:21">
       <c r="A3" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -4684,10 +4696,10 @@
     </row>
     <row r="4" s="3" customFormat="1" spans="1:21">
       <c r="A4" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
@@ -4713,13 +4725,13 @@
     </row>
     <row r="5" s="3" customFormat="1" spans="1:21">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -4742,13 +4754,13 @@
     </row>
     <row r="6" s="3" customFormat="1" spans="1:21">
       <c r="A6" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -4771,13 +4783,13 @@
     </row>
     <row r="7" s="3" customFormat="1" spans="1:21">
       <c r="A7" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -4803,10 +4815,10 @@
         <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -4832,10 +4844,10 @@
         <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -4858,13 +4870,13 @@
     </row>
     <row r="10" s="3" customFormat="1" spans="1:21">
       <c r="A10" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -4887,7 +4899,7 @@
     </row>
     <row r="11" s="3" customFormat="1" spans="1:21">
       <c r="A11" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>24</v>
@@ -4916,13 +4928,13 @@
     </row>
     <row r="12" s="3" customFormat="1" spans="1:21">
       <c r="A12" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -4945,13 +4957,13 @@
     </row>
     <row r="13" s="3" customFormat="1" spans="1:21">
       <c r="A13" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -4974,7 +4986,7 @@
     </row>
     <row r="14" s="3" customFormat="1" spans="1:21">
       <c r="A14" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>24</v>
@@ -5003,13 +5015,13 @@
     </row>
     <row r="15" s="3" customFormat="1" spans="1:21">
       <c r="A15" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -5032,13 +5044,13 @@
     </row>
     <row r="16" s="3" customFormat="1" spans="1:21">
       <c r="A16" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -5061,13 +5073,13 @@
     </row>
     <row r="17" s="3" customFormat="1" spans="1:21">
       <c r="A17" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -5093,10 +5105,10 @@
         <v>27</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -5122,10 +5134,10 @@
         <v>27</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -5148,13 +5160,13 @@
     </row>
     <row r="20" s="3" customFormat="1" spans="1:21">
       <c r="A20" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -5180,10 +5192,10 @@
         <v>33</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -5209,10 +5221,10 @@
         <v>33</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -5235,13 +5247,13 @@
     </row>
     <row r="23" s="3" customFormat="1" spans="1:21">
       <c r="A23" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -5289,10 +5301,10 @@
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -5318,10 +5330,10 @@
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -5344,13 +5356,13 @@
     </row>
     <row r="3" s="3" customFormat="1" spans="1:21">
       <c r="A3" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -5376,10 +5388,10 @@
         <v>33</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -5463,10 +5475,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -5492,10 +5504,10 @@
         <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -5521,10 +5533,10 @@
         <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -5550,10 +5562,10 @@
         <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -5576,13 +5588,13 @@
     </row>
     <row r="11" s="3" customFormat="1" spans="1:21">
       <c r="A11" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -5605,13 +5617,13 @@
     </row>
     <row r="12" s="3" customFormat="1" spans="1:21">
       <c r="A12" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -5634,13 +5646,13 @@
     </row>
     <row r="13" s="3" customFormat="1" spans="1:21">
       <c r="A13" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -5663,13 +5675,13 @@
     </row>
     <row r="14" s="3" customFormat="1" spans="1:21">
       <c r="A14" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -5692,13 +5704,13 @@
     </row>
     <row r="15" s="3" customFormat="1" spans="1:21">
       <c r="A15" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -5721,13 +5733,13 @@
     </row>
     <row r="16" s="3" customFormat="1" spans="1:21">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -5750,10 +5762,10 @@
     </row>
     <row r="17" s="3" customFormat="1" spans="1:21">
       <c r="A17" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>28</v>
@@ -5782,10 +5794,10 @@
         <v>31</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -5808,13 +5820,13 @@
     </row>
     <row r="19" s="3" customFormat="1" spans="1:21">
       <c r="A19" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -5837,13 +5849,13 @@
     </row>
     <row r="20" s="3" customFormat="1" spans="1:21">
       <c r="A20" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -5866,13 +5878,13 @@
     </row>
     <row r="21" s="3" customFormat="1" spans="1:21">
       <c r="A21" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -5895,13 +5907,13 @@
     </row>
     <row r="22" s="3" customFormat="1" spans="1:21">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -5924,7 +5936,7 @@
     </row>
     <row r="23" s="3" customFormat="1" spans="1:21">
       <c r="A23" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>24</v>
@@ -5953,7 +5965,7 @@
     </row>
     <row r="24" s="3" customFormat="1" spans="1:21">
       <c r="A24" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>22</v>
@@ -6008,32 +6020,32 @@
         <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/timings.xlsx
+++ b/timings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13635" activeTab="1"/>
+    <workbookView windowWidth="14265" windowHeight="13185" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="8-9" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161">
   <si>
     <t>MIKAN</t>
   </si>
@@ -230,6 +230,9 @@
     <t>KNEVA</t>
   </si>
   <si>
+    <t>19:50:00</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 21:50:00</t>
   </si>
   <si>
@@ -239,6 +242,15 @@
     <t xml:space="preserve"> 20:10:00</t>
   </si>
   <si>
+    <t>21:10:00</t>
+  </si>
+  <si>
+    <t>20:00:00</t>
+  </si>
+  <si>
+    <t>01:20:00</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 01:50:00</t>
   </si>
   <si>
@@ -254,48 +266,117 @@
     <t>STAIV</t>
   </si>
   <si>
+    <t>01:10:00</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 02:20:00</t>
   </si>
   <si>
     <t xml:space="preserve"> 20:30:00</t>
   </si>
   <si>
+    <t>20:40:00</t>
+  </si>
+  <si>
     <t>KNESA</t>
   </si>
   <si>
     <t>POPLA</t>
   </si>
   <si>
+    <t>22:30:00</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 00:00:00</t>
   </si>
   <si>
+    <t>00:15:00</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 21:40:00</t>
   </si>
   <si>
+    <t>19:25:00</t>
+  </si>
+  <si>
+    <t>21:30:00</t>
+  </si>
+  <si>
+    <t>19:40:00</t>
+  </si>
+  <si>
+    <t>23:50:00</t>
+  </si>
+  <si>
+    <t>00:30:00</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 22:20:00</t>
   </si>
   <si>
+    <t>22:50:00</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 02:30:00</t>
   </si>
   <si>
     <t>CIRNI</t>
   </si>
   <si>
+    <t>19:45:00</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 21:10:00</t>
   </si>
   <si>
+    <t>22:10:00</t>
+  </si>
+  <si>
+    <t>21:20:00</t>
+  </si>
+  <si>
+    <t>23:20:00</t>
+  </si>
+  <si>
+    <t>00:13:00</t>
+  </si>
+  <si>
+    <t>01:45:00</t>
+  </si>
+  <si>
+    <t>19:53:00</t>
+  </si>
+  <si>
+    <t>01:40:00</t>
+  </si>
+  <si>
+    <t>19:44:00</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 21:30:00</t>
   </si>
   <si>
+    <t>01:30:00</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 00:10:00</t>
   </si>
   <si>
+    <t>19:30:00</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 20:50:00</t>
   </si>
   <si>
+    <t>22:20:00</t>
+  </si>
+  <si>
     <t>TESAL</t>
   </si>
   <si>
+    <t>00:00:00</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 21:15:00</t>
   </si>
   <si>
@@ -356,16 +437,28 @@
     <t xml:space="preserve">22:36:00 </t>
   </si>
   <si>
+    <t>00:40:00</t>
+  </si>
+  <si>
     <t>MIRAL</t>
   </si>
   <si>
     <t>BASML</t>
   </si>
   <si>
+    <t>19:20:00</t>
+  </si>
+  <si>
+    <t>22:40:00</t>
+  </si>
+  <si>
     <t>VUKDU</t>
   </si>
   <si>
     <t xml:space="preserve"> 20:00:00</t>
+  </si>
+  <si>
+    <t>20:10:00</t>
   </si>
   <si>
     <t xml:space="preserve">22:47:00 </t>
@@ -419,9 +512,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -447,6 +540,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -458,13 +558,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -485,9 +578,62 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -502,38 +648,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -541,43 +671,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -598,13 +691,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,13 +727,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,7 +751,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,19 +781,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,13 +817,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -694,19 +829,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -718,55 +859,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -810,13 +903,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -824,8 +936,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -848,89 +960,70 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6"/>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5"/>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="7"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="8"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="5"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5"/>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3"/>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="6"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6"/>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -952,7 +1045,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="35" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1016,10 +1109,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="2D2D2D"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FCFCFC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1504,7 +1597,7 @@
   <sheetPr/>
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -1693,7 +1786,7 @@
   <dimension ref="A1:U32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2113,11 +2206,11 @@
       <c r="A15" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="6">
-        <v>0.826388888888889</v>
+      <c r="B15" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -2140,10 +2233,10 @@
     </row>
     <row r="16" s="3" customFormat="1" spans="1:21">
       <c r="A16" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="6">
-        <v>0.826388888888889</v>
+        <v>71</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>50</v>
@@ -2171,11 +2264,11 @@
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="6">
-        <v>0.826388888888889</v>
+      <c r="B17" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -2200,8 +2293,8 @@
       <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="6">
-        <v>0.881944444444444</v>
+      <c r="B18" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>50</v>
@@ -2229,8 +2322,8 @@
       <c r="A19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="6">
-        <v>0.833333333333333</v>
+      <c r="B19" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>50</v>
@@ -2258,11 +2351,11 @@
       <c r="A20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="6">
-        <v>0.0555555555555556</v>
+      <c r="B20" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -2285,13 +2378,13 @@
     </row>
     <row r="21" s="3" customFormat="1" spans="1:21">
       <c r="A21" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B21" s="6">
-        <v>0.826388888888889</v>
+        <v>77</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -2316,11 +2409,11 @@
       <c r="A22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="6">
-        <v>0.826388888888889</v>
+      <c r="B22" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -2345,11 +2438,11 @@
       <c r="A23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="6">
-        <v>0.902777777777778</v>
+      <c r="B23" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -2374,8 +2467,8 @@
       <c r="A24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="6">
-        <v>0.909722222222222</v>
+      <c r="B24" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>53</v>
@@ -2403,8 +2496,8 @@
       <c r="A25" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="6">
-        <v>0.826388888888889</v>
+      <c r="B25" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>50</v>
@@ -2430,13 +2523,13 @@
     </row>
     <row r="26" s="3" customFormat="1" spans="1:21">
       <c r="A26" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B26" s="6">
-        <v>0.0486111111111111</v>
+        <v>80</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -2461,8 +2554,8 @@
       <c r="A27" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="6">
-        <v>0.826388888888889</v>
+      <c r="B27" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>50</v>
@@ -2490,11 +2583,11 @@
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="6">
-        <v>0.826388888888889</v>
+      <c r="B28" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -2519,11 +2612,11 @@
       <c r="A29" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="6">
-        <v>0.861111111111111</v>
+      <c r="B29" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -2546,10 +2639,10 @@
     </row>
     <row r="30" s="3" customFormat="1" spans="1:21">
       <c r="A30" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B30" s="6">
-        <v>0.826388888888889</v>
+        <v>85</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>50</v>
@@ -2577,11 +2670,11 @@
       <c r="A31" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="6">
-        <v>0.826388888888889</v>
+      <c r="B31" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -2606,8 +2699,8 @@
       <c r="A32" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="6">
-        <v>0.826388888888889</v>
+      <c r="B32" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>50</v>
@@ -2642,8 +2735,8 @@
   <sheetPr/>
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="2"/>
@@ -2655,23 +2748,23 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="6">
-        <v>0.9375</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>81</v>
+        <v>86</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="6">
-        <v>0.0104166666666667</v>
-      </c>
-      <c r="C2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2679,43 +2772,43 @@
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>82</v>
+      <c r="B3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6">
-        <v>0.909722222222222</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="6">
-        <v>0.809027777777778</v>
-      </c>
-      <c r="C5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="6">
-        <v>0.895833333333333</v>
-      </c>
-      <c r="C6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2723,10 +2816,10 @@
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="6">
-        <v>0.819444444444444</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2734,10 +2827,10 @@
       <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="6">
-        <v>0.902777777777778</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2745,10 +2838,10 @@
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="6">
-        <v>0.993055555555556</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2756,21 +2849,21 @@
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="6">
-        <v>0.0208333333333333</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="6">
-        <v>0.809027777777778</v>
-      </c>
-      <c r="C11" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2778,43 +2871,43 @@
       <c r="A12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="6">
-        <v>0.826388888888889</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>83</v>
+      <c r="B12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="6">
-        <v>0.951388888888889</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>84</v>
+      <c r="B13" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14" s="6">
-        <v>0.822916666666667</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>86</v>
+        <v>99</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B15" s="6">
-        <v>0.923611111111111</v>
-      </c>
-      <c r="C15" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2822,10 +2915,10 @@
       <c r="A16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="6">
-        <v>0.888888888888889</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2833,21 +2926,21 @@
       <c r="A17" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="6">
-        <v>0.972222222222222</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>81</v>
+      <c r="B17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="6">
-        <v>0.00902777777777778</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="B18" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2855,10 +2948,10 @@
       <c r="A19" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="6">
-        <v>0.0486111111111111</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="B19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2866,21 +2959,21 @@
       <c r="A20" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="6">
-        <v>0.0729166666666667</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>77</v>
+      <c r="B20" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="6">
-        <v>0.828472222222222</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="B21" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2888,10 +2981,10 @@
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="6">
-        <v>0.0138888888888889</v>
-      </c>
-      <c r="C22" s="3" t="s">
+      <c r="B22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2899,21 +2992,21 @@
       <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="6">
-        <v>0.0694444444444444</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>84</v>
+      <c r="B23" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="6">
-        <v>0.822916666666667</v>
-      </c>
-      <c r="C24" s="3" t="s">
+      <c r="B24" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2921,21 +3014,21 @@
       <c r="A25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="6">
-        <v>0.822222222222222</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>87</v>
+      <c r="B25" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="6">
-        <v>0.819444444444444</v>
-      </c>
-      <c r="C26" s="3" t="s">
+      <c r="B26" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2943,21 +3036,21 @@
       <c r="A27" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="6">
-        <v>0.909722222222222</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>75</v>
+      <c r="B27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="6">
-        <v>0.0625</v>
-      </c>
-      <c r="C28" s="3" t="s">
+      <c r="B28" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2965,10 +3058,10 @@
       <c r="A29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="6">
-        <v>0.826388888888889</v>
-      </c>
-      <c r="C29" s="3" t="s">
+      <c r="B29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2976,32 +3069,32 @@
       <c r="A30" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="6">
-        <v>0.9375</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>88</v>
+      <c r="B30" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="6">
-        <v>0.8125</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>89</v>
+      <c r="B31" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="6">
-        <v>0.909722222222222</v>
-      </c>
-      <c r="C32" s="3" t="s">
+      <c r="B32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3009,21 +3102,21 @@
       <c r="A33" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="6">
-        <v>0.930555555555556</v>
-      </c>
-      <c r="C33" s="3" t="s">
+      <c r="B33" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B34" s="6">
-        <v>0.923611111111111</v>
-      </c>
-      <c r="C34" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3031,10 +3124,10 @@
       <c r="A35" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="6">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C35" s="3" t="s">
+      <c r="B35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3042,10 +3135,10 @@
       <c r="A36" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="6">
-        <v>0.888888888888889</v>
-      </c>
-      <c r="C36" s="3" t="s">
+      <c r="B36" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3053,10 +3146,10 @@
       <c r="A37" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="6">
-        <v>0.923611111111111</v>
-      </c>
-      <c r="C37" s="3" t="s">
+      <c r="B37" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3064,10 +3157,10 @@
       <c r="A38" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="6">
-        <v>0.0208333333333333</v>
-      </c>
-      <c r="C38" s="3" t="s">
+      <c r="B38" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3075,43 +3168,43 @@
       <c r="A39" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="6">
-        <v>0.0694444444444444</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>84</v>
+      <c r="B39" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B40" s="6">
-        <v>0.826388888888889</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>86</v>
+      <c r="B40" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="6">
-        <v>0.819444444444444</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>75</v>
+      <c r="B41" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="6">
-        <v>0</v>
-      </c>
-      <c r="C42" s="3" t="s">
+      <c r="B42" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3119,21 +3212,21 @@
       <c r="A43" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="6">
-        <v>0.819444444444444</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>91</v>
+      <c r="B43" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="6">
-        <v>0.951388888888889</v>
-      </c>
-      <c r="C44" s="3" t="s">
+      <c r="B44" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3141,32 +3234,32 @@
       <c r="A45" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B45" s="6">
-        <v>0.819444444444444</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>75</v>
+      <c r="B45" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B46" s="6">
-        <v>0</v>
-      </c>
-      <c r="C46" s="3" t="s">
+      <c r="B46" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B47" s="6">
-        <v>0.819444444444444</v>
-      </c>
-      <c r="C47" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3182,7 +3275,7 @@
   <dimension ref="A1:U48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -3198,7 +3291,7 @@
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>50</v>
@@ -3227,10 +3320,10 @@
         <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -3259,7 +3352,7 @@
         <v>49</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -3282,13 +3375,13 @@
     </row>
     <row r="4" s="3" customFormat="1" spans="1:21">
       <c r="A4" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -3311,7 +3404,7 @@
     </row>
     <row r="5" s="3" customFormat="1" spans="1:21">
       <c r="A5" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>34</v>
@@ -3340,13 +3433,13 @@
     </row>
     <row r="6" s="3" customFormat="1" spans="1:21">
       <c r="A6" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -3369,13 +3462,13 @@
     </row>
     <row r="7" s="3" customFormat="1" spans="1:21">
       <c r="A7" s="1" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -3398,10 +3491,10 @@
     </row>
     <row r="8" s="3" customFormat="1" spans="1:21">
       <c r="A8" s="1" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>53</v>
@@ -3427,7 +3520,7 @@
     </row>
     <row r="9" s="3" customFormat="1" spans="1:21">
       <c r="A9" s="1" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>6</v>
@@ -3456,13 +3549,13 @@
     </row>
     <row r="10" s="3" customFormat="1" spans="1:21">
       <c r="A10" s="1" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -3485,10 +3578,10 @@
     </row>
     <row r="11" s="3" customFormat="1" spans="1:21">
       <c r="A11" s="1" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>45</v>
@@ -3514,10 +3607,10 @@
     </row>
     <row r="12" s="3" customFormat="1" spans="1:21">
       <c r="A12" s="1" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>60</v>
@@ -3543,13 +3636,13 @@
     </row>
     <row r="13" s="3" customFormat="1" spans="1:21">
       <c r="A13" s="1" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -3572,13 +3665,13 @@
     </row>
     <row r="14" s="3" customFormat="1" spans="1:21">
       <c r="A14" s="1" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -3604,7 +3697,7 @@
         <v>32</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>48</v>
@@ -3662,10 +3755,10 @@
         <v>33</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -3691,7 +3784,7 @@
         <v>56</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>48</v>
@@ -3723,7 +3816,7 @@
         <v>63</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -3746,13 +3839,13 @@
     </row>
     <row r="20" s="3" customFormat="1" spans="1:21">
       <c r="A20" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -3775,10 +3868,10 @@
     </row>
     <row r="21" s="3" customFormat="1" spans="1:21">
       <c r="A21" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>41</v>
@@ -3810,7 +3903,7 @@
         <v>65</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -3836,10 +3929,10 @@
         <v>52</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -3865,7 +3958,7 @@
         <v>52</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>67</v>
@@ -3894,10 +3987,10 @@
         <v>52</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -3923,7 +4016,7 @@
         <v>21</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>50</v>
@@ -3952,10 +4045,10 @@
         <v>21</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -3978,13 +4071,13 @@
     </row>
     <row r="28" s="3" customFormat="1" spans="1:21">
       <c r="A28" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B28" s="6">
-        <v>0.833333333333333</v>
+        <v>80</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -4007,10 +4100,10 @@
     </row>
     <row r="29" s="3" customFormat="1" spans="1:21">
       <c r="A29" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B29" s="6">
-        <v>0.916666666666667</v>
+        <v>80</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>53</v>
@@ -4036,10 +4129,10 @@
     </row>
     <row r="30" s="3" customFormat="1" spans="1:21">
       <c r="A30" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B30" s="6">
-        <v>0.0277777777777778</v>
+        <v>80</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>11</v>
@@ -4065,10 +4158,10 @@
     </row>
     <row r="31" s="3" customFormat="1" spans="1:21">
       <c r="A31" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B31" s="6">
-        <v>0.0555555555555556</v>
+        <v>80</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>14</v>
@@ -4094,13 +4187,13 @@
     </row>
     <row r="32" s="3" customFormat="1" spans="1:21">
       <c r="A32" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B32" s="6">
-        <v>0.8125</v>
+        <v>139</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -4123,10 +4216,10 @@
     </row>
     <row r="33" s="3" customFormat="1" spans="1:21">
       <c r="A33" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B33" s="6">
-        <v>0.9375</v>
+        <v>139</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>53</v>
@@ -4152,10 +4245,10 @@
     </row>
     <row r="34" s="3" customFormat="1" spans="1:21">
       <c r="A34" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B34" s="6">
-        <v>0.8125</v>
+        <v>140</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>60</v>
@@ -4181,10 +4274,10 @@
     </row>
     <row r="35" s="3" customFormat="1" spans="1:21">
       <c r="A35" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B35" s="6">
-        <v>0.9375</v>
+        <v>140</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>53</v>
@@ -4212,11 +4305,11 @@
       <c r="A36" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B36" s="6">
-        <v>0.826388888888889</v>
+      <c r="B36" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -4241,11 +4334,11 @@
       <c r="A37" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="6">
-        <v>0.819444444444444</v>
+      <c r="B37" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -4270,11 +4363,11 @@
       <c r="A38" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="6">
-        <v>0.923611111111111</v>
+      <c r="B38" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -4299,11 +4392,11 @@
       <c r="A39" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B39" s="6">
-        <v>0.8125</v>
+      <c r="B39" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -4328,8 +4421,8 @@
       <c r="A40" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="6">
-        <v>0.923611111111111</v>
+      <c r="B40" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>67</v>
@@ -4357,8 +4450,8 @@
       <c r="A41" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="6">
-        <v>0.805555555555556</v>
+      <c r="B41" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>50</v>
@@ -4386,11 +4479,11 @@
       <c r="A42" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="6">
-        <v>0.944444444444444</v>
+      <c r="B42" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -4413,13 +4506,13 @@
     </row>
     <row r="43" s="3" customFormat="1" spans="1:21">
       <c r="A43" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B43" s="6">
-        <v>0.819444444444444</v>
+        <v>143</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -4442,10 +4535,10 @@
     </row>
     <row r="44" s="3" customFormat="1" spans="1:21">
       <c r="A44" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B44" s="6">
-        <v>0.840277777777778</v>
+        <v>143</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>48</v>
@@ -4471,13 +4564,13 @@
     </row>
     <row r="45" s="3" customFormat="1" spans="1:21">
       <c r="A45" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B45" s="6">
-        <v>0.951388888888889</v>
+        <v>143</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -4535,7 +4628,7 @@
         <v>24</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -4560,8 +4653,8 @@
       <c r="A48" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B48" s="6">
-        <v>0</v>
+      <c r="B48" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>16</v>
@@ -4597,7 +4690,7 @@
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -4638,7 +4731,7 @@
     </row>
     <row r="2" s="3" customFormat="1" spans="1:21">
       <c r="A2" s="1" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>65</v>
@@ -4667,10 +4760,10 @@
     </row>
     <row r="3" s="3" customFormat="1" spans="1:21">
       <c r="A3" s="1" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>67</v>
@@ -4696,10 +4789,10 @@
     </row>
     <row r="4" s="3" customFormat="1" spans="1:21">
       <c r="A4" s="1" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
@@ -4728,7 +4821,7 @@
         <v>51</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>53</v>
@@ -4754,13 +4847,13 @@
     </row>
     <row r="6" s="3" customFormat="1" spans="1:21">
       <c r="A6" s="1" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -4783,7 +4876,7 @@
     </row>
     <row r="7" s="3" customFormat="1" spans="1:21">
       <c r="A7" s="1" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>61</v>
@@ -4844,10 +4937,10 @@
         <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -4870,10 +4963,10 @@
     </row>
     <row r="10" s="3" customFormat="1" spans="1:21">
       <c r="A10" s="1" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>50</v>
@@ -4899,7 +4992,7 @@
     </row>
     <row r="11" s="3" customFormat="1" spans="1:21">
       <c r="A11" s="1" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>24</v>
@@ -4928,13 +5021,13 @@
     </row>
     <row r="12" s="3" customFormat="1" spans="1:21">
       <c r="A12" s="1" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -4957,10 +5050,10 @@
     </row>
     <row r="13" s="3" customFormat="1" spans="1:21">
       <c r="A13" s="1" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>50</v>
@@ -4986,7 +5079,7 @@
     </row>
     <row r="14" s="3" customFormat="1" spans="1:21">
       <c r="A14" s="1" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>24</v>
@@ -5015,13 +5108,13 @@
     </row>
     <row r="15" s="3" customFormat="1" spans="1:21">
       <c r="A15" s="1" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -5044,10 +5137,10 @@
     </row>
     <row r="16" s="3" customFormat="1" spans="1:21">
       <c r="A16" s="1" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>50</v>
@@ -5073,10 +5166,10 @@
     </row>
     <row r="17" s="3" customFormat="1" spans="1:21">
       <c r="A17" s="1" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>66</v>
@@ -5105,10 +5198,10 @@
         <v>27</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -5137,7 +5230,7 @@
         <v>62</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -5160,13 +5253,13 @@
     </row>
     <row r="20" s="3" customFormat="1" spans="1:21">
       <c r="A20" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="C20" s="1" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -5192,10 +5285,10 @@
         <v>33</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -5221,10 +5314,10 @@
         <v>33</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -5250,10 +5343,10 @@
         <v>40</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -5286,7 +5379,7 @@
   <dimension ref="A1:U24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -5301,10 +5394,10 @@
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -5330,10 +5423,10 @@
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -5356,13 +5449,13 @@
     </row>
     <row r="3" s="3" customFormat="1" spans="1:21">
       <c r="A3" s="1" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -5388,7 +5481,7 @@
         <v>33</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>48</v>
@@ -5475,7 +5568,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>60</v>
@@ -5504,10 +5597,10 @@
         <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -5533,10 +5626,10 @@
         <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -5562,10 +5655,10 @@
         <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -5588,13 +5681,13 @@
     </row>
     <row r="11" s="3" customFormat="1" spans="1:21">
       <c r="A11" s="1" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -5617,7 +5710,7 @@
     </row>
     <row r="12" s="3" customFormat="1" spans="1:21">
       <c r="A12" s="1" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>34</v>
@@ -5646,10 +5739,10 @@
     </row>
     <row r="13" s="3" customFormat="1" spans="1:21">
       <c r="A13" s="1" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>67</v>
@@ -5675,13 +5768,13 @@
     </row>
     <row r="14" s="3" customFormat="1" spans="1:21">
       <c r="A14" s="1" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -5704,7 +5797,7 @@
     </row>
     <row r="15" s="3" customFormat="1" spans="1:21">
       <c r="A15" s="1" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>34</v>
@@ -5733,13 +5826,13 @@
     </row>
     <row r="16" s="3" customFormat="1" spans="1:21">
       <c r="A16" s="1" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -5762,10 +5855,10 @@
     </row>
     <row r="17" s="3" customFormat="1" spans="1:21">
       <c r="A17" s="1" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>28</v>
@@ -5794,10 +5887,10 @@
         <v>31</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -5823,7 +5916,7 @@
         <v>51</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>53</v>
@@ -5855,7 +5948,7 @@
         <v>6</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -5881,10 +5974,10 @@
         <v>51</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -5910,7 +6003,7 @@
         <v>40</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>48</v>
@@ -6003,8 +6096,8 @@
   <sheetPr/>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="2" outlineLevelCol="2"/>
@@ -6023,12 +6116,12 @@
         <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>62</v>
@@ -6045,7 +6138,7 @@
         <v>61</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
